--- a/x_TotalArea_y_MVPA/Y_Test.xlsx
+++ b/x_TotalArea_y_MVPA/Y_Test.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5125218682279845</v>
+        <v>-0.2864887258182099</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6433065223981357</v>
+        <v>0.7722832033352507</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6596546041694047</v>
+        <v>-0.6004693668775121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5288699499992534</v>
+        <v>-0.3668093549264035</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4226074184860055</v>
+        <v>-0.6442806191183449</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2754746825445853</v>
+        <v>-0.001715586252796387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5615661135417912</v>
+        <v>-0.5347524885162628</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2673006416589509</v>
+        <v>-0.001715586252796387</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.43078145937164</v>
+        <v>-0.6880918713591778</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.7086988494832114</v>
+        <v>-0.6953937467326499</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3163448869727576</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5174072833619565</v>
+        <v>-0.1915643459630721</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.272186056792923</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.5615661135417912</v>
+        <v>0.1151144197227579</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1740975661653095</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.988734642776158</v>
+        <v>-0.4690356101550135</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9588054911862169</v>
+        <v>-0.5201487377693185</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5288699499992534</v>
+        <v>-0.746506874346955</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.498292189638091</v>
+        <v>0.4656044376494207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7086988494832114</v>
+        <v>0.4217931854085878</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3653891322865643</v>
+        <v>-0.6661862452387614</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.3326929687440265</v>
+        <v>-0.3668093549264035</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5664515286757632</v>
+        <v>4.014315869156882</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.460062002190359</v>
+        <v>-0.3449037288059871</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.7005248085975769</v>
+        <v>1.648508248151908</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.8231354218820937</v>
+        <v>0.1151144197227579</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2182563963451442</v>
+        <v>0.5094156898902535</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.539035399094107</v>
+        <v>-0.7757143758408435</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9097612458724103</v>
+        <v>-0.5347524885162628</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.1201679057175308</v>
+        <v>-0.3229981026855707</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.890646152148544</v>
+        <v>-0.6734881206122335</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1740975661653095</v>
+        <v>-0.2207718474569607</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.7250469312544803</v>
+        <v>-0.4106206071672364</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5288699499992534</v>
+        <v>-0.6588843698652892</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5174072833619565</v>
+        <v>1.648508248151908</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.04331291199515828</v>
+        <v>-0.5420543638897349</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.6596546041694047</v>
+        <v>-0.5128468623958463</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5125218682279845</v>
+        <v>-0.2864887258182099</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2754746825445853</v>
+        <v>-0.651582494491817</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.774091176568287</v>
+        <v>-0.6296768683714006</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5288699499992534</v>
+        <v>0.1151144197227579</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3490410505152954</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.2231418114791162</v>
+        <v>0.5094156898902535</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.684176726826308</v>
+        <v>-0.4179224825407085</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.6923507677119425</v>
+        <v>0.6262456958658078</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.61549577398957</v>
+        <v>0.8160944555760835</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4193187927343431</v>
+        <v>-0.5420543638897349</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.05148695288079273</v>
+        <v>-0.2353755982039049</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5125218682279845</v>
+        <v>-0.1915643459630721</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.1692121510313375</v>
+        <v>3.050468319858559</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.890646152148544</v>
+        <v>-0.6296768683714006</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.5533920726561568</v>
+        <v>0.02749191524109218</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.5860882361986945</v>
+        <v>1.648508248151908</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1692121510313375</v>
+        <v>-0.8049218773347321</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.3212303021067296</v>
+        <v>-0.746506874346955</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.6269584406268668</v>
+        <v>-0.5201487377693185</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.890646152148544</v>
+        <v>-0.3668093549264035</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.8558315854246314</v>
+        <v>-0.3668093549264035</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.833300870976947</v>
+        <v>1.648508248151908</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.5125218682279845</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.1528640692600686</v>
+        <v>-0.7319031236000106</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.3653891322865643</v>
+        <v>-0.1915643459630721</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.890646152148544</v>
+        <v>-0.2645830996977935</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1692121510313375</v>
+        <v>-0.3522056041794592</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.5615661135417912</v>
+        <v>1.852960758609128</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3490410505152954</v>
+        <v>-0.6880918713591778</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7462804281597212</v>
+        <v>4.277183382601879</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.5615661135417912</v>
+        <v>-0.7319031236000106</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.1692121510313375</v>
+        <v>-0.5420543638897349</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.833300870976947</v>
+        <v>1.298018230225245</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.04331291199515828</v>
+        <v>-0.3376018534325149</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.250952559887682</v>
+        <v>-0.3522056041794592</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.204026717755251</v>
+        <v>-0.6296768683714006</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.6596546041694047</v>
+        <v>-0.2864887258182099</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.383601627294897</v>
+        <v>-0.4836393609019578</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.3490410505152954</v>
+        <v>0.005586289120675755</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.400203699010477</v>
+        <v>0.4217931854085878</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.1201679057175308</v>
+        <v>-0.6734881206122335</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.02207941508991734</v>
+        <v>-0.7611106250938992</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1692121510313375</v>
+        <v>0.07130316748192504</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.5533920726561568</v>
+        <v>-0.7246012482265385</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4144333776003711</v>
+        <v>-0.3960168564202921</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6645400193033767</v>
+        <v>-0.2791868504447378</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.3212303021067296</v>
+        <v>1.852960758609128</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.7659171356826525</v>
+        <v>-0.6734881206122335</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.6433065223981357</v>
+        <v>-0.5201487377693185</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.8067873401108248</v>
+        <v>-0.6150731176244564</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.6596546041694047</v>
+        <v>0.684660698853585</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.7250469312544803</v>
+        <v>-0.6953937467326499</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.02696483022388938</v>
+        <v>-0.6953937467326499</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.1201679057175308</v>
+        <v>0.6554531973596964</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8116727552447969</v>
+        <v>-0.1477530937222392</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.5615661135417912</v>
+        <v>-0.5420543638897349</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.4634776229141778</v>
+        <v>1.210395725743579</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2346044781164131</v>
+        <v>0.4217931854085878</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.05477557863245515</v>
+        <v>-0.3522056041794592</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.5615661135417912</v>
+        <v>-0.001715586252796387</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.340867009629661</v>
+        <v>0.2465481764452565</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5174072833619565</v>
+        <v>-0.7172993728530663</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.3490410505152954</v>
+        <v>-0.2645830996977935</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.5615661135417912</v>
+        <v>-0.1769605952161278</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.8558315854246314</v>
+        <v>-0.4763374855284856</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.7577430947970181</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.250952559887682</v>
+        <v>-0.01631933699974067</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.1528640692600686</v>
+        <v>-0.5128468623958463</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.890646152148544</v>
+        <v>-0.3449037288059871</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.4193187927343431</v>
+        <v>1.298018230225245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.5125218682279845</v>
+        <v>-0.7319031236000106</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.3163448869727576</v>
+        <v>0.5532269421310865</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.340867009629661</v>
+        <v>-0.5128468623958463</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.6433065223981357</v>
+        <v>-0.01631933699974067</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.5125218682279845</v>
+        <v>-0.5128468623958463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.250952559887682</v>
+        <v>0.8160944555760835</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.547336434951898</v>
+        <v>-0.06013058924057352</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.383601627294897</v>
+        <v>-0.2864887258182099</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.02696483022388938</v>
+        <v>-0.4982431116489021</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.684176726826308</v>
+        <v>-0.3522056041794592</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5174072833619565</v>
+        <v>-0.06013058924057352</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.2754746825445853</v>
+        <v>-0.6296768683714006</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.890646152148544</v>
+        <v>3.050468319858559</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.6596546041694047</v>
+        <v>-0.3668093549264035</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5174072833619565</v>
+        <v>1.298018230225245</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.6596546041694047</v>
+        <v>-0.3522056041794592</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3.460062002190359</v>
+        <v>-0.6223749929979285</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.02207941508991734</v>
+        <v>-0.2353755982039049</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.7086988494832114</v>
+        <v>-0.01631933699974067</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.3490410505152954</v>
+        <v>0.2027369242044236</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.6514805632837701</v>
+        <v>-0.06013058924057352</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.5125218682279845</v>
+        <v>0.2465481764452565</v>
       </c>
     </row>
   </sheetData>
